--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/39.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/39.xlsx
@@ -479,13 +479,13 @@
         <v>-23.16249147386504</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.068294631040761</v>
+        <v>-9.119040396855292</v>
       </c>
       <c r="F2" t="n">
-        <v>5.74424515796822</v>
+        <v>5.503503893314561</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.8068505344658</v>
+        <v>-15.75497883060688</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-22.38350279368098</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.362033537597727</v>
+        <v>-9.447722659696824</v>
       </c>
       <c r="F3" t="n">
-        <v>5.65367260690916</v>
+        <v>5.401305377332048</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.34498027481539</v>
+        <v>-15.28678498868392</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-21.28367072133441</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.423318607199848</v>
+        <v>-9.513393650750922</v>
       </c>
       <c r="F4" t="n">
-        <v>5.791770217283686</v>
+        <v>5.561319502663624</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.57613479043503</v>
+        <v>-14.5405760959169</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.97631681071187</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.36667139615758</v>
+        <v>-10.45652387056034</v>
       </c>
       <c r="F5" t="n">
-        <v>5.863070898559726</v>
+        <v>5.622539110751535</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.62283185131758</v>
+        <v>-13.63227140166647</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.47548352498103</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.95726517734784</v>
+        <v>-11.04461702190784</v>
       </c>
       <c r="F6" t="n">
-        <v>6.072416820998926</v>
+        <v>5.839242907387785</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.86474823987312</v>
+        <v>-12.87996149577521</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.85387256774425</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.76685390817165</v>
+        <v>-11.82626677846741</v>
       </c>
       <c r="F7" t="n">
-        <v>6.387496181187905</v>
+        <v>6.146388332054678</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.56498369065508</v>
+        <v>-11.61773257880439</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.16213999999509</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.57028925665986</v>
+        <v>-12.62199076058183</v>
       </c>
       <c r="F8" t="n">
-        <v>6.652562944521492</v>
+        <v>6.397865285038552</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.85200306250036</v>
+        <v>-10.92424638958101</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.45347847861276</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.28765580626655</v>
+        <v>-13.34341592406947</v>
       </c>
       <c r="F9" t="n">
-        <v>6.717186551348251</v>
+        <v>6.464426552685888</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.673800545167751</v>
+        <v>-9.793909331437746</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.78052454189061</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.32600634464385</v>
+        <v>-14.36360743840529</v>
       </c>
       <c r="F10" t="n">
-        <v>6.880997444503928</v>
+        <v>6.63373621303509</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.055634374192811</v>
+        <v>-9.191074247090468</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.16882949578892</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.22713645693701</v>
+        <v>-15.26998756413798</v>
       </c>
       <c r="F11" t="n">
-        <v>7.102126439500681</v>
+        <v>6.856226807527382</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.276537616687378</v>
+        <v>-8.441788663155643</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.663532545649026</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.47021133485038</v>
+        <v>-16.48027931573566</v>
       </c>
       <c r="F12" t="n">
-        <v>7.043315815135648</v>
+        <v>6.805271564867384</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.845172422658186</v>
+        <v>-8.022272003198216</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.271568643582853</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.42115765945631</v>
+        <v>-17.39022054784131</v>
       </c>
       <c r="F13" t="n">
-        <v>6.931298072021839</v>
+        <v>6.668090415691779</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.562143019825752</v>
+        <v>-7.712429564145926</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.028181188390396</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.77731075701366</v>
+        <v>-18.71813354816906</v>
       </c>
       <c r="F14" t="n">
-        <v>6.950020065085508</v>
+        <v>6.718207750969906</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.654728602168561</v>
+        <v>-6.819508325734525</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.934710407072666</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.84885028309473</v>
+        <v>-19.77960509336484</v>
       </c>
       <c r="F15" t="n">
-        <v>6.930067395554717</v>
+        <v>6.683853548313217</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.187346483021781</v>
+        <v>-6.342529548604761</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.998468062766493</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.81037518839678</v>
+        <v>-20.73042049494236</v>
       </c>
       <c r="F16" t="n">
-        <v>6.841432505316232</v>
+        <v>6.611269821358688</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.582639199368138</v>
+        <v>-5.752119059654282</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.211317530994986</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.86966031901799</v>
+        <v>-21.76232962032152</v>
       </c>
       <c r="F17" t="n">
-        <v>7.149442021970679</v>
+        <v>6.916032446908387</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.644107561210042</v>
+        <v>-5.773878466977231</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.555635205015913</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.7242734793145</v>
+        <v>-22.60534300030026</v>
       </c>
       <c r="F18" t="n">
-        <v>7.525034005894117</v>
+        <v>7.273949821995494</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.106655437254345</v>
+        <v>-5.248811661509807</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.017768039041919</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.3462233258107</v>
+        <v>-23.22301166376722</v>
       </c>
       <c r="F19" t="n">
-        <v>7.833881429930434</v>
+        <v>7.579314693475913</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.248795385853086</v>
+        <v>-4.390886148594339</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.57064560064504</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.23670939589354</v>
+        <v>-24.12236122287391</v>
       </c>
       <c r="F20" t="n">
-        <v>8.046788458742585</v>
+        <v>7.791095784243674</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.789150817685767</v>
+        <v>-3.88527450514972</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.203318784020716</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.39372538387436</v>
+        <v>-24.31633678177692</v>
       </c>
       <c r="F21" t="n">
-        <v>7.906020018588345</v>
+        <v>7.652422112544111</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.743301573134043</v>
+        <v>-3.828715756873463</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.8920640409641057</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.07379196268498</v>
+        <v>-24.99963715938944</v>
       </c>
       <c r="F22" t="n">
-        <v>8.29910331910833</v>
+        <v>8.043017875524168</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.109951514216581</v>
+        <v>-4.159558249683881</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.6332929985643044</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.22126366189418</v>
+        <v>-25.16064629973699</v>
       </c>
       <c r="F23" t="n">
-        <v>7.957629876390429</v>
+        <v>7.721104333251806</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.988533497662413</v>
+        <v>-4.039567294139462</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.4173261393306896</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.63028029497255</v>
+        <v>-25.56413798101615</v>
       </c>
       <c r="F24" t="n">
-        <v>7.93063354793079</v>
+        <v>7.69845464933562</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.853093624764758</v>
+        <v>-3.882472752341591</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.2463484539554152</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.68876361176654</v>
+        <v>-25.6521968099296</v>
       </c>
       <c r="F25" t="n">
-        <v>8.05176353382244</v>
+        <v>7.820474911820507</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.74283025023174</v>
+        <v>-3.786689464751523</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.123512266491225</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.01138413839235</v>
+        <v>-25.97685973579872</v>
       </c>
       <c r="F26" t="n">
-        <v>7.95330941645266</v>
+        <v>7.726891131107849</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.552311059278943</v>
+        <v>-3.59256989051725</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.05335755229246046</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.96807480059192</v>
+        <v>-25.91433089742663</v>
       </c>
       <c r="F27" t="n">
-        <v>7.887481317764461</v>
+        <v>7.668499460433751</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.662181664726708</v>
+        <v>-3.686402424983901</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.04103687118663285</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.91430471282095</v>
+        <v>-25.86824599142376</v>
       </c>
       <c r="F28" t="n">
-        <v>7.750195430166122</v>
+        <v>7.518278377627786</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.877340569627634</v>
+        <v>-3.893496471334324</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.08453310463930362</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.80206440055883</v>
+        <v>-25.78829129796934</v>
       </c>
       <c r="F29" t="n">
-        <v>7.698245172490153</v>
+        <v>7.465385474147213</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.678612504793074</v>
+        <v>-3.685263394636671</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.1826037107318672</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.67021181863981</v>
+        <v>-25.64843931901402</v>
       </c>
       <c r="F30" t="n">
-        <v>7.796463628408781</v>
+        <v>7.563708668488576</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.83210666330947</v>
+        <v>-3.85000384129411</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.3240473613426113</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.34359813964727</v>
+        <v>-25.31304070481468</v>
       </c>
       <c r="F31" t="n">
-        <v>7.626525537523177</v>
+        <v>7.404165866059301</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.218879473859742</v>
+        <v>-4.210880076823448</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.499612846223066</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.92065129634531</v>
+        <v>-24.89656145911653</v>
       </c>
       <c r="F32" t="n">
-        <v>7.760643087833819</v>
+        <v>7.520373146082462</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.137746473149566</v>
+        <v>-4.156638666150176</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.6963552333208585</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.76766773763974</v>
+        <v>-24.73079981283744</v>
       </c>
       <c r="F33" t="n">
-        <v>7.771928652883387</v>
+        <v>7.513591333210448</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.270240577907834</v>
+        <v>-4.292733154189919</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.9086619879870012</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.37093168462692</v>
+        <v>-24.32916723856181</v>
       </c>
       <c r="F34" t="n">
-        <v>7.884522457322231</v>
+        <v>7.626342245283393</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.307265610344235</v>
+        <v>-4.331434001390061</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.133019538122874</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.21716258775085</v>
+        <v>-24.19508896515969</v>
       </c>
       <c r="F35" t="n">
-        <v>7.782847633453386</v>
+        <v>7.521158684252966</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.467567766338329</v>
+        <v>-4.499918846660234</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.367237142259567</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86550333342208</v>
+        <v>-23.83330936073428</v>
       </c>
       <c r="F36" t="n">
-        <v>7.920264444080143</v>
+        <v>7.656716387876197</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.404881820332144</v>
+        <v>-4.458494800469013</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.609615229771298</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.28733414762862</v>
+        <v>-23.27441204472383</v>
       </c>
       <c r="F37" t="n">
-        <v>7.885857872212087</v>
+        <v>7.626787383580012</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.51771128622214</v>
+        <v>-4.573013173425591</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.855288730150839</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.78431478014666</v>
+        <v>-22.76259464973224</v>
       </c>
       <c r="F38" t="n">
-        <v>7.863862803437987</v>
+        <v>7.575151341172244</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.484692498455306</v>
+        <v>-4.525854698589693</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.102457388091713</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.59481678881552</v>
+        <v>-22.57208855108228</v>
       </c>
       <c r="F39" t="n">
-        <v>8.028904373060787</v>
+        <v>7.747576969597777</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.70741875439875</v>
+        <v>-4.726324039702202</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.34406679551332</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.89553070943324</v>
+        <v>-21.87691345479231</v>
       </c>
       <c r="F40" t="n">
-        <v>8.296903812230919</v>
+        <v>8.005861920059349</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.671139983224327</v>
+        <v>-4.700990433703462</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.578054796868005</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.22686752639777</v>
+        <v>-21.21903832929842</v>
       </c>
       <c r="F41" t="n">
-        <v>8.284073355446028</v>
+        <v>8.000520260499924</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.697350773513463</v>
+        <v>-4.722710564117886</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.797486825383572</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.52119240322873</v>
+        <v>-20.50591368581244</v>
       </c>
       <c r="F42" t="n">
-        <v>8.288786584469049</v>
+        <v>8.02453154391165</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.036742540079528</v>
+        <v>-5.060295592891793</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.999417759154452</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.69110112615477</v>
+        <v>-19.69543467839539</v>
       </c>
       <c r="F43" t="n">
-        <v>8.398631005311131</v>
+        <v>8.126232552386178</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.192868251467111</v>
+        <v>-5.219445626235815</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.179505826908712</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.00313988873059</v>
+        <v>-19.00774837933088</v>
       </c>
       <c r="F44" t="n">
-        <v>8.177894779399629</v>
+        <v>7.926496380232805</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.993642679124566</v>
+        <v>-5.030392773201291</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.335850564784309</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.53654330775432</v>
+        <v>-18.55026404113245</v>
       </c>
       <c r="F45" t="n">
-        <v>8.220523317452288</v>
+        <v>7.951293201815034</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.187448038090636</v>
+        <v>-5.231870221632613</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.470240623138679</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.85773359001651</v>
+        <v>-17.85270614572529</v>
       </c>
       <c r="F46" t="n">
-        <v>8.307220546870198</v>
+        <v>8.059566546316109</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.325139787077069</v>
+        <v>-5.366380541028507</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.582814597011095</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.70207920153123</v>
+        <v>-17.6976147262622</v>
       </c>
       <c r="F47" t="n">
-        <v>8.171348627978766</v>
+        <v>7.929141025406834</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.61876086290846</v>
+        <v>-5.662855738879394</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.682208885860134</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.06398654563118</v>
+        <v>-17.06390799181413</v>
       </c>
       <c r="F48" t="n">
-        <v>8.11866520134366</v>
+        <v>7.887900271455396</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.712868335734787</v>
+        <v>-5.757722565270541</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.770009053121089</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.20255229555413</v>
+        <v>-16.21175618445186</v>
       </c>
       <c r="F49" t="n">
-        <v>8.056319655211361</v>
+        <v>7.839484935546693</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.936314668334526</v>
+        <v>-6.002430797685243</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.858873719092153</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.64743865506495</v>
+        <v>-15.65446922169095</v>
       </c>
       <c r="F50" t="n">
-        <v>7.803166887463745</v>
+        <v>7.582168815495409</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.161816492480416</v>
+        <v>-6.22708162214642</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.953076858912</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.93108021277706</v>
+        <v>-14.93364630413404</v>
       </c>
       <c r="F51" t="n">
-        <v>7.637837287178429</v>
+        <v>7.434461454835056</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.114068864016641</v>
+        <v>-6.187765436712716</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.065343464699274</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.25501987863601</v>
+        <v>-14.28175436103882</v>
       </c>
       <c r="F52" t="n">
-        <v>7.51102524185347</v>
+        <v>7.318254174811895</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.294899750866561</v>
+        <v>-6.398721712401449</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.203058819093726</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.76693882869646</v>
+        <v>-13.78388026857366</v>
       </c>
       <c r="F53" t="n">
-        <v>7.55601039441764</v>
+        <v>7.349780440054771</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.330039491693754</v>
+        <v>-6.434895745153138</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.373502092464792</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.31977122513731</v>
+        <v>-13.3277051606594</v>
       </c>
       <c r="F54" t="n">
-        <v>7.33914949014729</v>
+        <v>7.125797323038522</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.553564378110543</v>
+        <v>-6.648483573713057</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.582742805775545</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.72467369176949</v>
+        <v>-12.73466311883773</v>
       </c>
       <c r="F55" t="n">
-        <v>7.307256640424845</v>
+        <v>7.114668865623055</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.874116320887365</v>
+        <v>-6.960590981156965</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.826781841014588</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.44160501202853</v>
+        <v>-12.46149222004511</v>
       </c>
       <c r="F56" t="n">
-        <v>7.348392655953549</v>
+        <v>7.144231285439672</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.832901751541611</v>
+        <v>-6.92861957761747</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.108849316757505</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.98476219666934</v>
+        <v>-12.0111039099869</v>
       </c>
       <c r="F57" t="n">
-        <v>6.998906723896513</v>
+        <v>6.80220796600242</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.073564462378219</v>
+        <v>-7.167266073816452</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.41503826788019</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.55848990844559</v>
+        <v>-11.58172874598965</v>
       </c>
       <c r="F58" t="n">
-        <v>7.147163961276219</v>
+        <v>6.943002590762343</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.813515234386893</v>
+        <v>-7.881843962917862</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.745835366970382</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.51891187695505</v>
+        <v>-11.52052223020458</v>
       </c>
       <c r="F59" t="n">
-        <v>7.002546384086513</v>
+        <v>6.802155596791054</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.829055797860022</v>
+        <v>-7.912728705321493</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.085966400890422</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.28670679375419</v>
+        <v>-11.28173171867434</v>
       </c>
       <c r="F60" t="n">
-        <v>6.856069699893282</v>
+        <v>6.660104110958326</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.066183586929364</v>
+        <v>-8.150209986567562</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.432559031203777</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.33309282272243</v>
+        <v>-11.3256171177998</v>
       </c>
       <c r="F61" t="n">
-        <v>6.686367270458828</v>
+        <v>6.492260788527398</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.530973430113482</v>
+        <v>-8.615104568174413</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.775074723296425</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.40681558002419</v>
+        <v>-11.37827435982923</v>
       </c>
       <c r="F62" t="n">
-        <v>6.706162832355518</v>
+        <v>6.489328112690851</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.75775829993786</v>
+        <v>-8.828914965882642</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.10792427255626</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.05056092739798</v>
+        <v>-11.01297292593939</v>
       </c>
       <c r="F63" t="n">
-        <v>7.021137454121764</v>
+        <v>6.788225386567457</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.801971006634369</v>
+        <v>-8.867903843745301</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.4286719671273</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.8060490795259</v>
+        <v>-10.79100602356076</v>
       </c>
       <c r="F64" t="n">
-        <v>6.866910126646231</v>
+        <v>6.641853440796959</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.024841277909072</v>
+        <v>-9.067325800630474</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.729376962582004</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.83447246899529</v>
+        <v>-10.84265515827137</v>
       </c>
       <c r="F65" t="n">
-        <v>6.840489859511628</v>
+        <v>6.613155112967896</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.091297807133675</v>
+        <v>-9.136453159634787</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.016248156427396</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.55400915751984</v>
+        <v>-10.56208710837318</v>
       </c>
       <c r="F66" t="n">
-        <v>6.671154014556743</v>
+        <v>6.453298095270421</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.473619234717759</v>
+        <v>-9.503364946774161</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.27901261107117</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.78652845598889</v>
+        <v>-10.79985642028177</v>
       </c>
       <c r="F67" t="n">
-        <v>6.428658381322292</v>
+        <v>6.207843601593741</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.523474723939051</v>
+        <v>-9.548886883754841</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.52960711531826</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.93038667961378</v>
+        <v>-10.92594838895043</v>
       </c>
       <c r="F68" t="n">
-        <v>6.397524885164668</v>
+        <v>6.174850998432591</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.346074020433663</v>
+        <v>-9.37942011577154</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.761321379631738</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.73220849149857</v>
+        <v>-10.71797715830961</v>
       </c>
       <c r="F69" t="n">
-        <v>6.393859040368985</v>
+        <v>6.188466993387986</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.353955586744382</v>
+        <v>-9.401388999939956</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.98514514992176</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.9843924288359</v>
+        <v>-10.96247591387885</v>
       </c>
       <c r="F70" t="n">
-        <v>6.187236316920863</v>
+        <v>5.969118551577707</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.458929670929342</v>
+        <v>-9.487195952764628</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.20071200784718</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.9479958269359</v>
+        <v>-10.93991787608255</v>
       </c>
       <c r="F71" t="n">
-        <v>5.861421268401669</v>
+        <v>5.673860937891101</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.428843558999056</v>
+        <v>-9.460186532002147</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.414245270387108</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.98994356524079</v>
+        <v>-10.99749782398046</v>
       </c>
       <c r="F72" t="n">
-        <v>6.087787184535112</v>
+        <v>5.872680648845553</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.696764444352137</v>
+        <v>-9.704567456845806</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.63335891655526</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.42572086532764</v>
+        <v>-11.43894409119778</v>
       </c>
       <c r="F73" t="n">
-        <v>6.202266280583165</v>
+        <v>5.977654733030513</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.43813909401668</v>
+        <v>-9.47583183389801</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.856229297629781</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.55745561652109</v>
+        <v>-11.56436835242152</v>
       </c>
       <c r="F74" t="n">
-        <v>6.168566693068562</v>
+        <v>5.965112306908139</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.508575683305168</v>
+        <v>-9.532076366906065</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.09391109822655</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.07995633063153</v>
+        <v>-12.07960283845481</v>
       </c>
       <c r="F75" t="n">
-        <v>6.123450617475974</v>
+        <v>5.914052325825407</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.665094163778003</v>
+        <v>-9.663221964471635</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.33314861010578</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.99096794821632</v>
+        <v>-12.01710018468841</v>
       </c>
       <c r="F76" t="n">
-        <v>6.014339365593029</v>
+        <v>5.807847565173326</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.706073071672606</v>
+        <v>-9.693923414635483</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.58451129184164</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.67665112494604</v>
+        <v>-12.68483381422212</v>
       </c>
       <c r="F77" t="n">
-        <v>5.982655992716052</v>
+        <v>5.789047018292607</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.461482669983479</v>
+        <v>-9.460670947207291</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.83049672189572</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.37396026659921</v>
+        <v>-13.37952449530695</v>
       </c>
       <c r="F78" t="n">
-        <v>6.04164990932087</v>
+        <v>5.853330225245482</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.856906309358251</v>
+        <v>-8.878272947595949</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.07210925161658</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.64579575050197</v>
+        <v>-13.67707326199086</v>
       </c>
       <c r="F79" t="n">
-        <v>6.229969593396257</v>
+        <v>6.035522711590942</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.057493481196337</v>
+        <v>-9.048001561636086</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.29195849477389</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.23868068468954</v>
+        <v>-14.26538898248666</v>
       </c>
       <c r="F80" t="n">
-        <v>6.23643719100007</v>
+        <v>6.046834461246193</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.482689017233195</v>
+        <v>-8.482636648021829</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.47742392279131</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.82712732821376</v>
+        <v>-14.84755132064685</v>
       </c>
       <c r="F81" t="n">
-        <v>6.328999772091073</v>
+        <v>6.122612710094104</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.340336408435109</v>
+        <v>-8.349016605219173</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.61286877157941</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.67601915216843</v>
+        <v>-15.70078978914498</v>
       </c>
       <c r="F82" t="n">
-        <v>6.340704290831576</v>
+        <v>6.130075322713887</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.230230141536191</v>
+        <v>-8.23627878544907</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.67528999562847</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.69562151287638</v>
+        <v>-16.72849628531195</v>
       </c>
       <c r="F83" t="n">
-        <v>6.510511458688764</v>
+        <v>6.298599444892585</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.090718562454759</v>
+        <v>-8.088414317154616</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.65378845485457</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.62021303186191</v>
+        <v>-17.67186216657252</v>
       </c>
       <c r="F84" t="n">
-        <v>6.452145972620349</v>
+        <v>6.224785041470934</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.739569907936824</v>
+        <v>-7.737344216453731</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.52153374423879</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.48023331323206</v>
+        <v>-18.54679458087939</v>
       </c>
       <c r="F85" t="n">
-        <v>6.667435800549693</v>
+        <v>6.466285659689413</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.519750143224243</v>
+        <v>-7.533353045876797</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.27587910284048</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.75771476301348</v>
+        <v>-19.82822990611901</v>
       </c>
       <c r="F86" t="n">
-        <v>6.538607540587108</v>
+        <v>6.334262877833448</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.538616151619171</v>
+        <v>-7.534125491744459</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.89923340446732</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.81134401880707</v>
+        <v>-20.88044519320569</v>
       </c>
       <c r="F87" t="n">
-        <v>6.614961850760054</v>
+        <v>6.4011121761433</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.017738883061099</v>
+        <v>-7.037403521929372</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.39967114717036</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.16195907226237</v>
+        <v>-22.26592504912852</v>
       </c>
       <c r="F88" t="n">
-        <v>6.91605863151407</v>
+        <v>6.701842372417748</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.082506505219118</v>
+        <v>-7.098191084023506</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.782175431535153</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.80021201915039</v>
+        <v>-23.87953828206841</v>
       </c>
       <c r="F89" t="n">
-        <v>6.755389891040408</v>
+        <v>6.539419263363295</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.761038101243376</v>
+        <v>-6.77585858806021</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.067662135780747</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.0681491801602</v>
+        <v>-25.1898290427712</v>
       </c>
       <c r="F90" t="n">
-        <v>7.04226843090831</v>
+        <v>6.816740422156736</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.156216170218036</v>
+        <v>-7.165524797538503</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.283663109872947</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.8045420291498</v>
+        <v>-26.93051616709289</v>
       </c>
       <c r="F91" t="n">
-        <v>7.141115317363342</v>
+        <v>6.921531214101912</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.703013015048846</v>
+        <v>-6.718082255619673</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.457873373843206</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.7889685554759</v>
+        <v>-28.91652686206284</v>
       </c>
       <c r="F92" t="n">
-        <v>6.867721849422418</v>
+        <v>6.665838539603001</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.953743706770742</v>
+        <v>-6.970737515859303</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.628218124094196</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.6503012504841</v>
+        <v>-30.77171926703826</v>
       </c>
       <c r="F93" t="n">
-        <v>6.892440117187596</v>
+        <v>6.673432075251203</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.251786797608757</v>
+        <v>-6.309445299323719</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.816876036866369</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.63688800677909</v>
+        <v>-32.77320506396714</v>
       </c>
       <c r="F94" t="n">
-        <v>6.857248007149037</v>
+        <v>6.654710082187535</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.59684753130529</v>
+        <v>-6.638769085004497</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.055781835443964</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.96195006844122</v>
+        <v>-35.08094600896967</v>
       </c>
       <c r="F95" t="n">
-        <v>6.818390052314794</v>
+        <v>6.60378102413322</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.998057968536106</v>
+        <v>-6.071401049055456</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.347913146005613</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.38596375498112</v>
+        <v>-37.49393597651683</v>
       </c>
       <c r="F96" t="n">
-        <v>6.580502909680631</v>
+        <v>6.383306644278553</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.939221159565389</v>
+        <v>-6.023064266963803</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.706632496916467</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.37294328036135</v>
+        <v>-39.49768674183732</v>
       </c>
       <c r="F97" t="n">
-        <v>6.513470319130994</v>
+        <v>6.306481011203305</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.539617892230226</v>
+        <v>-5.622583815338245</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.115503915891539</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.78885283144223</v>
+        <v>-41.91611001506381</v>
       </c>
       <c r="F98" t="n">
-        <v>6.433633456402148</v>
+        <v>6.214625414465755</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.726955653592484</v>
+        <v>-5.80633428572187</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.572739014937217</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.14159202131177</v>
+        <v>-44.24957733515033</v>
       </c>
       <c r="F99" t="n">
-        <v>6.266628041353091</v>
+        <v>6.057046457462739</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.471799763510085</v>
+        <v>-5.547512550843787</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.049733259670096</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.26952327908603</v>
+        <v>-46.38387145210567</v>
       </c>
       <c r="F100" t="n">
-        <v>6.005358045843605</v>
+        <v>5.794519600880449</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.535899678223176</v>
+        <v>-5.613000249658101</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.556054910606979</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.69584121092608</v>
+        <v>-48.81269001378848</v>
       </c>
       <c r="F101" t="n">
-        <v>5.971344243060801</v>
+        <v>5.746418480239947</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.561429668764542</v>
+        <v>-5.654830157237416</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.05001492030659</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.15272966990155</v>
+        <v>-51.24428414367374</v>
       </c>
       <c r="F102" t="n">
-        <v>5.270146687463636</v>
+        <v>5.081512788120047</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.253681998166929</v>
+        <v>-5.341505165629227</v>
       </c>
     </row>
   </sheetData>
